--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -591,7 +591,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -166,13 +166,31 @@
   </si>
   <si>
     <t>comboBox16</t>
+  </si>
+  <si>
+    <t>comboBox17</t>
+  </si>
+  <si>
+    <t>Transmissão/Tipo de Barra/Insert</t>
+  </si>
+  <si>
+    <t>ID Tipo da Barra</t>
+  </si>
+  <si>
+    <t>Descrição Tipo da Barra</t>
+  </si>
+  <si>
+    <t>textBox34</t>
+  </si>
+  <si>
+    <t>textBox35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +318,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,6 +401,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -412,6 +436,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -587,27 +612,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="2.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -638,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -669,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
@@ -696,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -727,7 +752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
@@ -754,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
@@ -775,7 +800,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
@@ -796,7 +821,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
@@ -817,7 +842,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
@@ -838,7 +863,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
@@ -859,7 +884,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
@@ -880,7 +905,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
@@ -901,7 +926,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
@@ -922,7 +947,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -953,7 +978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
@@ -972,7 +997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>18</v>
       </c>
@@ -1003,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
@@ -1030,7 +1055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -1061,7 +1086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
@@ -1088,7 +1113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1109,7 +1134,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1140,7 +1165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="6"/>
@@ -1159,6 +1184,85 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="2">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="2">
+        <v>22</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="2">
+        <v>31</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="2">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="2">
+        <v>22</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="2">
+        <v>32</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="2">
+        <v>62</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="2">
+        <v>22</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1166,12 +1270,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1179,12 +1283,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="9432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -166,6 +166,57 @@
   </si>
   <si>
     <t>comboBox16</t>
+  </si>
+  <si>
+    <t>Formulário</t>
+  </si>
+  <si>
+    <t>Tipo de Barra</t>
+  </si>
+  <si>
+    <t>Atributo</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IDcasoBase</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Transmissão</t>
+  </si>
+  <si>
+    <t>Distribuição</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Inserir</t>
+  </si>
+  <si>
+    <t>Remover</t>
+  </si>
+  <si>
+    <t>Atualizar</t>
+  </si>
+  <si>
+    <t>Pesquisar</t>
+  </si>
+  <si>
+    <t>TextBox</t>
+  </si>
+  <si>
+    <t>ComboBox</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Textbox</t>
   </si>
 </sst>
 </file>
@@ -188,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,11 +300,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +360,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1167,12 +1285,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="9" customWidth="1"/>
+    <col min="5" max="8" width="17.33203125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -575,7 +575,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -595,7 +595,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -97,6 +97,126 @@
   </si>
   <si>
     <t>trans/case/insert</t>
+  </si>
+  <si>
+    <t>label7</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>combobox3</t>
+  </si>
+  <si>
+    <t>trans/bus/insert</t>
+  </si>
+  <si>
+    <t>label8</t>
+  </si>
+  <si>
+    <t>Número da barra</t>
+  </si>
+  <si>
+    <t>textbox1</t>
+  </si>
+  <si>
+    <t>label9</t>
+  </si>
+  <si>
+    <t>Número sequencial</t>
+  </si>
+  <si>
+    <t>textbox8</t>
+  </si>
+  <si>
+    <t>label10</t>
+  </si>
+  <si>
+    <t>magnitude de tensão</t>
+  </si>
+  <si>
+    <t>textbox2</t>
+  </si>
+  <si>
+    <t>label11</t>
+  </si>
+  <si>
+    <t>ângulo de fase</t>
+  </si>
+  <si>
+    <t>textbox12</t>
+  </si>
+  <si>
+    <t>base de tensão</t>
+  </si>
+  <si>
+    <t>label12</t>
+  </si>
+  <si>
+    <t>textbox3</t>
+  </si>
+  <si>
+    <t>tensão especificada</t>
+  </si>
+  <si>
+    <t>label16</t>
+  </si>
+  <si>
+    <t>textbox11</t>
+  </si>
+  <si>
+    <t>lim max geração</t>
+  </si>
+  <si>
+    <t>label19</t>
+  </si>
+  <si>
+    <t>textbox4</t>
+  </si>
+  <si>
+    <t>label20</t>
+  </si>
+  <si>
+    <t>lim min. geração</t>
+  </si>
+  <si>
+    <t>label22</t>
+  </si>
+  <si>
+    <t>textbox9</t>
+  </si>
+  <si>
+    <t>label21</t>
+  </si>
+  <si>
+    <t>textbox7</t>
+  </si>
+  <si>
+    <t>lim max tensão</t>
+  </si>
+  <si>
+    <t>textbox10</t>
+  </si>
+  <si>
+    <t>lim min. tensão</t>
+  </si>
+  <si>
+    <t>label23</t>
+  </si>
+  <si>
+    <t>nome da barra</t>
+  </si>
+  <si>
+    <t>textbox13</t>
+  </si>
+  <si>
+    <t>label24</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>combobox4</t>
   </si>
 </sst>
 </file>
@@ -513,7 +633,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -688,134 +808,264 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2"/>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -93,9 +93,6 @@
     <t>Submit</t>
   </si>
   <si>
-    <t>Clean</t>
-  </si>
-  <si>
     <t>trans/case/insert</t>
   </si>
   <si>
@@ -192,15 +189,6 @@
     <t>textbox7</t>
   </si>
   <si>
-    <t>lim max tensão</t>
-  </si>
-  <si>
-    <t>textbox10</t>
-  </si>
-  <si>
-    <t>lim min. tensão</t>
-  </si>
-  <si>
     <t>label23</t>
   </si>
   <si>
@@ -217,6 +205,72 @@
   </si>
   <si>
     <t>combobox4</t>
+  </si>
+  <si>
+    <t>button4</t>
+  </si>
+  <si>
+    <t>button5</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>trans/bustype/insert</t>
+  </si>
+  <si>
+    <t>bustypeID</t>
+  </si>
+  <si>
+    <t>caseID</t>
+  </si>
+  <si>
+    <t>button6</t>
+  </si>
+  <si>
+    <t>button7</t>
+  </si>
+  <si>
+    <t>combobox5</t>
+  </si>
+  <si>
+    <t>richtexbox1</t>
+  </si>
+  <si>
+    <t>label26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus </t>
+  </si>
+  <si>
+    <t>busType</t>
+  </si>
+  <si>
+    <t>ComboBox6</t>
+  </si>
+  <si>
+    <t>ComboBox7</t>
+  </si>
+  <si>
+    <t>ComboBox8</t>
+  </si>
+  <si>
+    <t>label27</t>
+  </si>
+  <si>
+    <t>label28</t>
+  </si>
+  <si>
+    <t>label29</t>
+  </si>
+  <si>
+    <t>button8</t>
+  </si>
+  <si>
+    <t>button9</t>
+  </si>
+  <si>
+    <t>trans/busbustyperel/insert</t>
   </si>
 </sst>
 </file>
@@ -630,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -641,7 +695,7 @@
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -681,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -701,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -721,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -741,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -761,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -781,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -792,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -801,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -809,19 +863,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -829,19 +883,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -849,19 +903,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -869,19 +923,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -889,19 +943,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -909,19 +963,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="2">
         <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -929,19 +983,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -949,19 +1003,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="2">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -969,19 +1023,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -989,7 +1043,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>57</v>
@@ -1001,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1009,19 +1063,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1029,19 +1083,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2">
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1055,47 +1109,217 @@
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="127">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -271,6 +271,135 @@
   </si>
   <si>
     <t>trans/busbustyperel/insert</t>
+  </si>
+  <si>
+    <t>inicialBus</t>
+  </si>
+  <si>
+    <t>finalBus</t>
+  </si>
+  <si>
+    <t>sequencialNumber</t>
+  </si>
+  <si>
+    <t>resistence</t>
+  </si>
+  <si>
+    <t>reactance</t>
+  </si>
+  <si>
+    <t>susceptance</t>
+  </si>
+  <si>
+    <t>MVAratings#1</t>
+  </si>
+  <si>
+    <t>MVAratings#2</t>
+  </si>
+  <si>
+    <t>MVAratings#3</t>
+  </si>
+  <si>
+    <t>circuitNumber</t>
+  </si>
+  <si>
+    <t>label30</t>
+  </si>
+  <si>
+    <t>label31</t>
+  </si>
+  <si>
+    <t>label32</t>
+  </si>
+  <si>
+    <t>label33</t>
+  </si>
+  <si>
+    <t>label34</t>
+  </si>
+  <si>
+    <t>label39</t>
+  </si>
+  <si>
+    <t>label38</t>
+  </si>
+  <si>
+    <t>label37</t>
+  </si>
+  <si>
+    <t>label36</t>
+  </si>
+  <si>
+    <t>label35</t>
+  </si>
+  <si>
+    <t>label40</t>
+  </si>
+  <si>
+    <t>label42</t>
+  </si>
+  <si>
+    <t>label41</t>
+  </si>
+  <si>
+    <t>combobox9</t>
+  </si>
+  <si>
+    <t>combobox10</t>
+  </si>
+  <si>
+    <t>texbox15</t>
+  </si>
+  <si>
+    <t>texbox16</t>
+  </si>
+  <si>
+    <t>texbox17</t>
+  </si>
+  <si>
+    <t>texbox18</t>
+  </si>
+  <si>
+    <t>texbox19</t>
+  </si>
+  <si>
+    <t>texbox20</t>
+  </si>
+  <si>
+    <t>texbox21</t>
+  </si>
+  <si>
+    <t>texbox22</t>
+  </si>
+  <si>
+    <t>texbox23</t>
+  </si>
+  <si>
+    <t>trans/line/insert</t>
+  </si>
+  <si>
+    <t>button10</t>
+  </si>
+  <si>
+    <t>button11</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>combobox11</t>
+  </si>
+  <si>
+    <t>combobox12</t>
+  </si>
+  <si>
+    <t>label43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormNotUsed </t>
+  </si>
+  <si>
+    <t>trans/linespacing/insert</t>
   </si>
 </sst>
 </file>
@@ -684,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1320,6 +1449,324 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="139">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -400,6 +400,42 @@
   </si>
   <si>
     <t>trans/linespacing/insert</t>
+  </si>
+  <si>
+    <t>label44</t>
+  </si>
+  <si>
+    <t>trans/conductor/insert</t>
+  </si>
+  <si>
+    <t>trans/lineType/insert</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>label46</t>
+  </si>
+  <si>
+    <t>label47</t>
+  </si>
+  <si>
+    <t>label48</t>
+  </si>
+  <si>
+    <t>button12</t>
+  </si>
+  <si>
+    <t>button13</t>
+  </si>
+  <si>
+    <t>comboBox13</t>
+  </si>
+  <si>
+    <t>textBox10</t>
+  </si>
+  <si>
+    <t>richTextBox3</t>
   </si>
 </sst>
 </file>
@@ -813,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -825,12 +861,9 @@
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -846,11 +879,8 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,11 +896,8 @@
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -886,11 +913,8 @@
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,11 +930,8 @@
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,11 +947,8 @@
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,11 +964,8 @@
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,11 +981,8 @@
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -986,11 +998,8 @@
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1006,11 +1015,8 @@
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1026,11 +1032,8 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1046,11 +1049,8 @@
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1066,11 +1066,8 @@
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1086,11 +1083,8 @@
       <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1106,11 +1100,8 @@
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1126,11 +1117,8 @@
       <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1146,11 +1134,8 @@
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -1166,11 +1151,8 @@
       <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1186,11 +1168,8 @@
       <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -1206,11 +1185,8 @@
       <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1226,11 +1202,8 @@
       <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -1246,11 +1219,8 @@
       <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1266,11 +1236,8 @@
       <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1286,11 +1253,8 @@
       <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -1306,11 +1270,8 @@
       <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -1326,11 +1287,8 @@
       <c r="E25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -1346,11 +1304,8 @@
       <c r="E26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -1366,11 +1321,8 @@
       <c r="E27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1386,11 +1338,8 @@
       <c r="E28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
@@ -1406,11 +1355,8 @@
       <c r="E29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -1426,11 +1372,8 @@
       <c r="E30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
@@ -1446,11 +1389,8 @@
       <c r="E31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -1466,11 +1406,8 @@
       <c r="E32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
@@ -1486,11 +1423,8 @@
       <c r="E33" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
@@ -1506,11 +1440,8 @@
       <c r="E34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>97</v>
       </c>
@@ -1526,11 +1457,8 @@
       <c r="E35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -1546,11 +1474,8 @@
       <c r="E36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
@@ -1566,11 +1491,8 @@
       <c r="E37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
@@ -1586,11 +1508,8 @@
       <c r="E38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -1606,11 +1525,8 @@
       <c r="E39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -1626,11 +1542,8 @@
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
@@ -1646,11 +1559,8 @@
       <c r="E41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>104</v>
       </c>
@@ -1666,11 +1576,8 @@
       <c r="E42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -1686,11 +1593,8 @@
       <c r="E43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
@@ -1706,11 +1610,8 @@
       <c r="E44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -1726,11 +1627,8 @@
       <c r="E45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>120</v>
       </c>
@@ -1746,27 +1644,125 @@
       <c r="E46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D47" s="2">
         <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="2">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="2">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="172">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -436,6 +436,105 @@
   </si>
   <si>
     <t>richTextBox3</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>trans/linelineType/insert</t>
+  </si>
+  <si>
+    <t>label49</t>
+  </si>
+  <si>
+    <t>label50</t>
+  </si>
+  <si>
+    <t>label51</t>
+  </si>
+  <si>
+    <t>comboBox15</t>
+  </si>
+  <si>
+    <t>comboBox14</t>
+  </si>
+  <si>
+    <t>comboBox16</t>
+  </si>
+  <si>
+    <t>trans/lossozine/insert</t>
+  </si>
+  <si>
+    <t>lossZOne</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>button14</t>
+  </si>
+  <si>
+    <t>button15</t>
+  </si>
+  <si>
+    <t>label52</t>
+  </si>
+  <si>
+    <t>label53</t>
+  </si>
+  <si>
+    <t>label54</t>
+  </si>
+  <si>
+    <t>label55</t>
+  </si>
+  <si>
+    <t>button16</t>
+  </si>
+  <si>
+    <t>comboBox17</t>
+  </si>
+  <si>
+    <t>textBox14</t>
+  </si>
+  <si>
+    <t>richTextBox4</t>
+  </si>
+  <si>
+    <t>textBox24</t>
+  </si>
+  <si>
+    <t>label57</t>
+  </si>
+  <si>
+    <t>label58</t>
+  </si>
+  <si>
+    <t>label59</t>
+  </si>
+  <si>
+    <t>button18</t>
+  </si>
+  <si>
+    <t>button19</t>
+  </si>
+  <si>
+    <t>busID</t>
+  </si>
+  <si>
+    <t>lossZoneID</t>
+  </si>
+  <si>
+    <t>comboBox18</t>
+  </si>
+  <si>
+    <t>comboBox19</t>
+  </si>
+  <si>
+    <t>comboBox20</t>
+  </si>
+  <si>
+    <t>trans/losszoneBus/insert</t>
   </si>
 </sst>
 </file>
@@ -849,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1762,6 +1861,278 @@
       </c>
       <c r="E53" s="2" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="1">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="1">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="1">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="1">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="1">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="1">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="1">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="1">
+        <v>15</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="1">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="1">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -525,16 +525,55 @@
     <t>lossZoneID</t>
   </si>
   <si>
-    <t>comboBox18</t>
-  </si>
-  <si>
-    <t>comboBox19</t>
-  </si>
-  <si>
-    <t>comboBox20</t>
-  </si>
-  <si>
     <t>trans/losszoneBus/insert</t>
+  </si>
+  <si>
+    <t>comboBox18;</t>
+  </si>
+  <si>
+    <t>comboBox19;</t>
+  </si>
+  <si>
+    <t>comboBox20;</t>
+  </si>
+  <si>
+    <t>label62;</t>
+  </si>
+  <si>
+    <t>label61;</t>
+  </si>
+  <si>
+    <t>label60;</t>
+  </si>
+  <si>
+    <t>ramo</t>
+  </si>
+  <si>
+    <t>losszone</t>
+  </si>
+  <si>
+    <t>button21;</t>
+  </si>
+  <si>
+    <t>button20;</t>
+  </si>
+  <si>
+    <t>comboBox23;</t>
+  </si>
+  <si>
+    <t>comboBox22;</t>
+  </si>
+  <si>
+    <t>comboBox21;</t>
+  </si>
+  <si>
+    <t>trans/losszoneLine/insert</t>
+  </si>
+  <si>
+    <t>label63</t>
+  </si>
+  <si>
+    <t>trans/modelload/insert</t>
   </si>
 </sst>
 </file>
@@ -948,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2058,13 +2097,13 @@
         <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D65" s="1">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2075,13 +2114,13 @@
         <v>166</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D66" s="1">
         <v>15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2092,13 +2131,13 @@
         <v>167</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D67" s="1">
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2115,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2132,7 +2171,109 @@
         <v>15</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="2">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="2">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="2">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="1">
+        <v>17</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="215">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -574,6 +574,96 @@
   </si>
   <si>
     <t>trans/modelload/insert</t>
+  </si>
+  <si>
+    <t>label64;</t>
+  </si>
+  <si>
+    <t>label65;</t>
+  </si>
+  <si>
+    <t>label66;</t>
+  </si>
+  <si>
+    <t>label67;</t>
+  </si>
+  <si>
+    <t>button22;</t>
+  </si>
+  <si>
+    <t>button23;</t>
+  </si>
+  <si>
+    <t>comboBox24</t>
+  </si>
+  <si>
+    <t>comboBox25;</t>
+  </si>
+  <si>
+    <t>textBox25;</t>
+  </si>
+  <si>
+    <t>textBox26;</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>portencia ativa</t>
+  </si>
+  <si>
+    <t>portencia reativa</t>
+  </si>
+  <si>
+    <t>trans/load/insert</t>
+  </si>
+  <si>
+    <t>label70;</t>
+  </si>
+  <si>
+    <t>label71;</t>
+  </si>
+  <si>
+    <t>label72;</t>
+  </si>
+  <si>
+    <t>label73;</t>
+  </si>
+  <si>
+    <t>label74;</t>
+  </si>
+  <si>
+    <t>button24;</t>
+  </si>
+  <si>
+    <t>button25;</t>
+  </si>
+  <si>
+    <t>caso</t>
+  </si>
+  <si>
+    <t>barra</t>
+  </si>
+  <si>
+    <t>condutancia</t>
+  </si>
+  <si>
+    <t>comboBox26;</t>
+  </si>
+  <si>
+    <t>comboBox27;</t>
+  </si>
+  <si>
+    <t>textBox27;</t>
+  </si>
+  <si>
+    <t>textBox28;</t>
+  </si>
+  <si>
+    <t>richTextBox5;</t>
+  </si>
+  <si>
+    <t>trans/shunt/insert</t>
   </si>
 </sst>
 </file>
@@ -987,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2274,6 +2364,227 @@
       </c>
       <c r="E75" s="1" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="2">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="2">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="2">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="2">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="1">
+        <v>20</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="1">
+        <v>20</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="1">
+        <v>20</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="1">
+        <v>20</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="1">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="1">
+        <v>20</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="1">
+        <v>20</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="290">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -664,6 +664,231 @@
   </si>
   <si>
     <t>trans/shunt/insert</t>
+  </si>
+  <si>
+    <t>button26;</t>
+  </si>
+  <si>
+    <t>button27;</t>
+  </si>
+  <si>
+    <t>label76;</t>
+  </si>
+  <si>
+    <t>label77;</t>
+  </si>
+  <si>
+    <t>label78;</t>
+  </si>
+  <si>
+    <t>label79;</t>
+  </si>
+  <si>
+    <t>label80;</t>
+  </si>
+  <si>
+    <t>label81;</t>
+  </si>
+  <si>
+    <t>label82;</t>
+  </si>
+  <si>
+    <t>comoBox28;</t>
+  </si>
+  <si>
+    <t>label75;</t>
+  </si>
+  <si>
+    <t>finalVoltageRatio</t>
+  </si>
+  <si>
+    <t>FinalPhaseAngle</t>
+  </si>
+  <si>
+    <t>MinLim1</t>
+  </si>
+  <si>
+    <t>MaxLim2</t>
+  </si>
+  <si>
+    <t>MaxLim1</t>
+  </si>
+  <si>
+    <t>stepSize</t>
+  </si>
+  <si>
+    <t>MinLim2</t>
+  </si>
+  <si>
+    <t>trans/trans/insert</t>
+  </si>
+  <si>
+    <t>textBox29;</t>
+  </si>
+  <si>
+    <t>textBox30;</t>
+  </si>
+  <si>
+    <t>textBox31;</t>
+  </si>
+  <si>
+    <t>textBox32;</t>
+  </si>
+  <si>
+    <t>textBox33;</t>
+  </si>
+  <si>
+    <t>textBox34;</t>
+  </si>
+  <si>
+    <t>textBox35;</t>
+  </si>
+  <si>
+    <t>label83;</t>
+  </si>
+  <si>
+    <t>label84;</t>
+  </si>
+  <si>
+    <t>label85;</t>
+  </si>
+  <si>
+    <t>label86;</t>
+  </si>
+  <si>
+    <t>label87;</t>
+  </si>
+  <si>
+    <t>comboBox29;</t>
+  </si>
+  <si>
+    <t>comboBox30;</t>
+  </si>
+  <si>
+    <t>comboBox37;</t>
+  </si>
+  <si>
+    <t>button28;</t>
+  </si>
+  <si>
+    <t>button29;</t>
+  </si>
+  <si>
+    <t>lineID</t>
+  </si>
+  <si>
+    <t>trafoID</t>
+  </si>
+  <si>
+    <t>trans/trans_line/insert</t>
+  </si>
+  <si>
+    <t>label88;</t>
+  </si>
+  <si>
+    <t>button30;</t>
+  </si>
+  <si>
+    <t>button31;</t>
+  </si>
+  <si>
+    <t>case ID</t>
+  </si>
+  <si>
+    <t>bus that controls</t>
+  </si>
+  <si>
+    <t>bus that is controlled</t>
+  </si>
+  <si>
+    <t>comboBox32;</t>
+  </si>
+  <si>
+    <t>comboBox31;</t>
+  </si>
+  <si>
+    <t>comboBox33;</t>
+  </si>
+  <si>
+    <t>comboBox34;</t>
+  </si>
+  <si>
+    <t>trans/busbus/insert</t>
+  </si>
+  <si>
+    <t>label89;</t>
+  </si>
+  <si>
+    <t>label90;</t>
+  </si>
+  <si>
+    <t>label91;</t>
+  </si>
+  <si>
+    <t>button32;</t>
+  </si>
+  <si>
+    <t>button33;</t>
+  </si>
+  <si>
+    <t>trabs/linebus/insert</t>
+  </si>
+  <si>
+    <t>comboBox35;</t>
+  </si>
+  <si>
+    <t>comboBox36;</t>
+  </si>
+  <si>
+    <t>label92;</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>textBox36;</t>
+  </si>
+  <si>
+    <t>button34;</t>
+  </si>
+  <si>
+    <t>button35;</t>
+  </si>
+  <si>
+    <t>label94;</t>
+  </si>
+  <si>
+    <t>label95;</t>
+  </si>
+  <si>
+    <t>label96;</t>
+  </si>
+  <si>
+    <t>label97;</t>
+  </si>
+  <si>
+    <t>busid</t>
+  </si>
+  <si>
+    <t>active powe</t>
+  </si>
+  <si>
+    <t>reactive power</t>
+  </si>
+  <si>
+    <t>comboBox38;</t>
+  </si>
+  <si>
+    <t>comboBox39;</t>
+  </si>
+  <si>
+    <t>textBox37;</t>
+  </si>
+  <si>
+    <t>textBox38;</t>
+  </si>
+  <si>
+    <t>trans/generation/insert</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2585,6 +2810,550 @@
       </c>
       <c r="E88" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="2">
+        <v>21</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="2">
+        <v>21</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" s="2">
+        <v>21</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="2">
+        <v>21</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" s="2">
+        <v>21</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D94" s="2">
+        <v>21</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" s="2">
+        <v>21</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" s="2">
+        <v>21</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2">
+        <v>21</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2">
+        <v>21</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="1">
+        <v>22</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" s="1">
+        <v>22</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D101" s="1">
+        <v>22</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="1">
+        <v>22</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="1">
+        <v>22</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D104" s="2">
+        <v>23</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" s="2">
+        <v>23</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D106" s="2">
+        <v>23</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2">
+        <v>23</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2">
+        <v>23</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="1">
+        <v>24</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D110" s="1">
+        <v>24</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D111" s="1">
+        <v>24</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D112" s="1">
+        <v>24</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="1">
+        <v>24</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="1">
+        <v>24</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D115" s="2">
+        <v>25</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D116" s="2">
+        <v>25</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" s="2">
+        <v>25</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D118" s="2">
+        <v>25</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2">
+        <v>25</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2">
+        <v>25</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="335">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -889,6 +889,141 @@
   </si>
   <si>
     <t>trans/generation/insert</t>
+  </si>
+  <si>
+    <t>label99;</t>
+  </si>
+  <si>
+    <t>label100;</t>
+  </si>
+  <si>
+    <t>label101;</t>
+  </si>
+  <si>
+    <t>label102;</t>
+  </si>
+  <si>
+    <t>label103;</t>
+  </si>
+  <si>
+    <t>button36;</t>
+  </si>
+  <si>
+    <t>button37;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case ID </t>
+  </si>
+  <si>
+    <t>Measured Bus</t>
+  </si>
+  <si>
+    <t>Non Measured Bus</t>
+  </si>
+  <si>
+    <t>Sequencial Number</t>
+  </si>
+  <si>
+    <t>Circuito Number</t>
+  </si>
+  <si>
+    <t>comboBox40;</t>
+  </si>
+  <si>
+    <t>comboBox41;</t>
+  </si>
+  <si>
+    <t>comboBox42;</t>
+  </si>
+  <si>
+    <t>textBox39;</t>
+  </si>
+  <si>
+    <t>textBox40;</t>
+  </si>
+  <si>
+    <t>trans/tieLines/insert</t>
+  </si>
+  <si>
+    <t>trans/interchange/insert</t>
+  </si>
+  <si>
+    <t>label104;</t>
+  </si>
+  <si>
+    <t>label105;</t>
+  </si>
+  <si>
+    <t>label106;</t>
+  </si>
+  <si>
+    <t>label107;</t>
+  </si>
+  <si>
+    <t>label108;</t>
+  </si>
+  <si>
+    <t>button38;</t>
+  </si>
+  <si>
+    <t>button39;</t>
+  </si>
+  <si>
+    <t>comboBox43;</t>
+  </si>
+  <si>
+    <t>comboBox44;</t>
+  </si>
+  <si>
+    <t>comboBox45;</t>
+  </si>
+  <si>
+    <t>textBox41;</t>
+  </si>
+  <si>
+    <t>textBox42;</t>
+  </si>
+  <si>
+    <t>area ID</t>
+  </si>
+  <si>
+    <t>bus ID</t>
+  </si>
+  <si>
+    <t>export power</t>
+  </si>
+  <si>
+    <t>tolerance power</t>
+  </si>
+  <si>
+    <t>label109;</t>
+  </si>
+  <si>
+    <t>label110;</t>
+  </si>
+  <si>
+    <t>label111;</t>
+  </si>
+  <si>
+    <t>button40;</t>
+  </si>
+  <si>
+    <t>button41;</t>
+  </si>
+  <si>
+    <t>comboBox46;</t>
+  </si>
+  <si>
+    <t>textBox43;</t>
+  </si>
+  <si>
+    <t>case DI</t>
+  </si>
+  <si>
+    <t>trans/area/insert</t>
+  </si>
+  <si>
+    <t>richTextBox6;</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3354,6 +3489,329 @@
       </c>
       <c r="E120" s="2" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D121" s="1">
+        <v>27</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D122" s="1">
+        <v>27</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D123" s="1">
+        <v>27</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D124" s="1">
+        <v>27</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D125" s="1">
+        <v>27</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="1">
+        <v>27</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="1">
+        <v>27</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D128" s="2">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D129" s="2">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D130" s="2">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" s="2">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D132" s="2">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D135" s="1">
+        <v>29</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D136" s="1">
+        <v>29</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D137" s="1">
+        <v>29</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="1">
+        <v>29</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="1">
+        <v>29</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsApplication1/Significado dos índices.xlsx
+++ b/WindowsApplication1/Significado dos índices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="343">
   <si>
     <t xml:space="preserve">Label </t>
   </si>
@@ -1024,6 +1024,30 @@
   </si>
   <si>
     <t>richTextBox6;</t>
+  </si>
+  <si>
+    <t>label112;</t>
+  </si>
+  <si>
+    <t>textBox44;</t>
+  </si>
+  <si>
+    <t>richTextBox7;</t>
+  </si>
+  <si>
+    <t>label113;</t>
+  </si>
+  <si>
+    <t>distr/case/insert</t>
+  </si>
+  <si>
+    <t>button42;</t>
+  </si>
+  <si>
+    <t>título</t>
+  </si>
+  <si>
+    <t>button43;</t>
   </si>
 </sst>
 </file>
@@ -1437,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3812,6 +3836,74 @@
       </c>
       <c r="E139" s="1" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D140" s="2">
+        <v>30</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D141" s="2">
+        <v>30</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2">
+        <v>30</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2">
+        <v>30</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
